--- a/data/trans_orig/IP37-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP37-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1C1BD05-6074-4F05-9DCB-D88A6F1EED07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ADD33E1-7C6E-46D5-948F-DE0AB94B409B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F0FBEB2-6DE3-4AD2-8820-6626073BA7DF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{448675A5-13C9-450D-BECB-476D694F5EA1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="359">
   <si>
     <t>Adultos según si han trabajado anteriormente en 2007 (Tasa respuesta: 44,11%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>61,68%</t>
   </si>
   <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
   </si>
   <si>
     <t>63,98%</t>
   </si>
   <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
   </si>
   <si>
     <t>62,66%</t>
   </si>
   <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>38,32%</t>
   </si>
   <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
   </si>
   <si>
     <t>36,02%</t>
   </si>
   <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
   </si>
   <si>
     <t>37,34%</t>
   </si>
   <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>67,45%</t>
   </si>
   <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
   </si>
   <si>
     <t>66,89%</t>
   </si>
   <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
   </si>
   <si>
     <t>67,17%</t>
   </si>
   <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
   </si>
   <si>
     <t>32,55%</t>
   </si>
   <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
   </si>
   <si>
     <t>33,11%</t>
   </si>
   <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
   </si>
   <si>
     <t>32,83%</t>
   </si>
   <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -197,55 +197,55 @@
     <t>68,75%</t>
   </si>
   <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
   </si>
   <si>
     <t>55,15%</t>
   </si>
   <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
   </si>
   <si>
     <t>61,17%</t>
   </si>
   <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
   </si>
   <si>
     <t>31,25%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
   </si>
   <si>
     <t>44,85%</t>
   </si>
   <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
   </si>
   <si>
     <t>38,83%</t>
   </si>
   <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -254,109 +254,109 @@
     <t>56,69%</t>
   </si>
   <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
   </si>
   <si>
     <t>57,64%</t>
   </si>
   <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
   </si>
   <si>
     <t>57,13%</t>
   </si>
   <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
   </si>
   <si>
     <t>43,31%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
   </si>
   <si>
     <t>42,36%</t>
   </si>
   <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
   </si>
   <si>
     <t>42,87%</t>
   </si>
   <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
   </si>
   <si>
     <t>63,42%</t>
   </si>
   <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
   </si>
   <si>
     <t>61,13%</t>
   </si>
   <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
   </si>
   <si>
     <t>62,3%</t>
   </si>
   <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
   </si>
   <si>
     <t>36,58%</t>
   </si>
   <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
   </si>
   <si>
     <t>38,87%</t>
   </si>
   <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
   </si>
   <si>
     <t>37,7%</t>
   </si>
   <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -368,526 +368,538 @@
     <t>80,02%</t>
   </si>
   <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
   </si>
   <si>
     <t>79,87%</t>
   </si>
   <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
   </si>
   <si>
     <t>79,94%</t>
   </si>
   <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
     <t>74,59%</t>
   </si>
   <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
   </si>
   <si>
     <t>25,41%</t>
   </si>
   <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
+    <t>36,26%</t>
   </si>
   <si>
     <t>73,36%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
   </si>
   <si>
     <t>26,64%</t>
   </si>
   <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
   </si>
   <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
   </si>
   <si>
     <t>24,88%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>Adultos según si han trabajado anteriormente en 2015 (Tasa respuesta: 50,09%)</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>Adultos según si han trabajado anteriormente en 2016 (Tasa respuesta: 50,09%)</t>
   </si>
   <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
   </si>
   <si>
     <t>76,06%</t>
   </si>
   <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
   </si>
   <si>
     <t>75,02%</t>
   </si>
   <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
   </si>
   <si>
     <t>23,94%</t>
   </si>
   <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
   </si>
   <si>
     <t>76,4%</t>
   </si>
   <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
   </si>
   <si>
     <t>76,61%</t>
   </si>
   <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
   </si>
   <si>
     <t>76,49%</t>
   </si>
   <si>
-    <t>81,09%</t>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
   </si>
   <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
   </si>
   <si>
     <t>23,51%</t>
   </si>
   <si>
-    <t>18,91%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
   </si>
   <si>
     <t>73,37%</t>
   </si>
   <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
   </si>
   <si>
     <t>81,35%</t>
   </si>
   <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
   </si>
   <si>
     <t>77,36%</t>
   </si>
   <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
   </si>
   <si>
     <t>26,63%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
   </si>
   <si>
     <t>18,65%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
   </si>
   <si>
     <t>22,64%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
   </si>
   <si>
     <t>67,79%</t>
   </si>
   <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
   </si>
   <si>
     <t>71,32%</t>
   </si>
   <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
   </si>
   <si>
     <t>69,63%</t>
   </si>
   <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
   </si>
   <si>
     <t>32,21%</t>
   </si>
   <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
   </si>
   <si>
     <t>28,68%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
   </si>
   <si>
     <t>30,37%</t>
   </si>
   <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
   </si>
   <si>
     <t>73,19%</t>
   </si>
   <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>74,78%</t>
   </si>
   <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
   </si>
   <si>
     <t>26,81%</t>
   </si>
   <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
   </si>
   <si>
     <t>25,22%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
   </si>
   <si>
     <t>Adultos según si han trabajado anteriormente en 2023 (Tasa respuesta: 3,91%)</t>
@@ -923,187 +935,187 @@
     <t>79,24%</t>
   </si>
   <si>
-    <t>44,6%</t>
+    <t>37,94%</t>
   </si>
   <si>
     <t>37,36%</t>
   </si>
   <si>
+    <t>82,25%</t>
+  </si>
+  <si>
     <t>59,51%</t>
   </si>
   <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
+    <t>32,12%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>55,4%</t>
+    <t>62,06%</t>
   </si>
   <si>
     <t>62,64%</t>
   </si>
   <si>
+    <t>17,75%</t>
+  </si>
+  <si>
     <t>40,49%</t>
   </si>
   <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
+    <t>67,88%</t>
   </si>
   <si>
     <t>20,05%</t>
   </si>
   <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
   </si>
   <si>
     <t>79,95%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
   </si>
   <si>
     <t>74,21%</t>
   </si>
   <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>55,6%</t>
   </si>
   <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
   </si>
   <si>
     <t>31,81%</t>
   </si>
   <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
   </si>
   <si>
     <t>44,19%</t>
   </si>
   <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
   </si>
   <si>
     <t>44,4%</t>
   </si>
   <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
   </si>
   <si>
     <t>68,19%</t>
   </si>
   <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
   </si>
   <si>
     <t>55,81%</t>
   </si>
   <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
   </si>
   <si>
     <t>54,45%</t>
   </si>
   <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
   </si>
   <si>
     <t>31,78%</t>
   </si>
   <si>
-    <t>47,3%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
   </si>
   <si>
     <t>42,2%</t>
   </si>
   <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
   </si>
   <si>
     <t>45,55%</t>
   </si>
   <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
   </si>
   <si>
     <t>68,22%</t>
   </si>
   <si>
-    <t>52,7%</t>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
   </si>
   <si>
     <t>57,8%</t>
   </si>
   <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA28CDD5-F595-4125-9926-18F911BEE645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D17C75-DAEA-4BFD-BA32-EDF9660D9AAB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2422,7 +2434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C2D903-63BB-491E-B7D1-A22CBCE8747C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7153DDA3-C33A-41A0-B467-278A9793B2A4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3329,7 +3341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872433DE-2A9A-44FC-9952-005F9FC13651}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B457289-44AF-4C75-8A7B-F82C6323BCBA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3641,10 +3653,10 @@
         <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3671,13 @@
         <v>29648</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -3674,13 +3686,13 @@
         <v>23876</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>79</v>
@@ -3689,13 +3701,13 @@
         <v>53525</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3775,13 @@
         <v>70264</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>114</v>
@@ -3778,13 +3790,13 @@
         <v>77857</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>211</v>
@@ -3793,13 +3805,13 @@
         <v>148121</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3826,13 @@
         <v>25497</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -3829,13 +3841,13 @@
         <v>17850</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -3844,13 +3856,13 @@
         <v>43347</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3930,13 @@
         <v>57590</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>96</v>
@@ -3933,13 +3945,13 @@
         <v>66053</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -3948,13 +3960,13 @@
         <v>123643</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3981,13 @@
         <v>27363</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -3984,13 +3996,13 @@
         <v>26562</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>76</v>
@@ -3999,13 +4011,13 @@
         <v>53925</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4085,13 @@
         <v>268476</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>420</v>
@@ -4091,10 +4103,10 @@
         <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>802</v>
@@ -4103,13 +4115,13 @@
         <v>545289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4136,13 @@
         <v>98366</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H17" s="7">
         <v>124</v>
@@ -4139,13 +4151,13 @@
         <v>85515</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>263</v>
@@ -4154,13 +4166,13 @@
         <v>183882</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,7 +4248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D9C6D9-EA51-4E1B-998C-C6987FBA6F3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA93E90-EABB-48C4-98E6-2C425B106021}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4253,7 +4265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4360,13 +4372,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4375,13 +4387,13 @@
         <v>396</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4390,13 +4402,13 @@
         <v>396</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,10 +4423,10 @@
         <v>352</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -4426,13 +4438,13 @@
         <v>494</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4441,13 +4453,13 @@
         <v>846</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4527,13 @@
         <v>3468</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4530,13 +4542,13 @@
         <v>1455</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4545,13 +4557,13 @@
         <v>4922</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>298</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4578,13 @@
         <v>908</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4581,13 +4593,13 @@
         <v>2441</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -4596,13 +4608,13 @@
         <v>3349</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4682,13 @@
         <v>630</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4685,13 +4697,13 @@
         <v>2397</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4700,13 +4712,13 @@
         <v>3027</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4733,13 @@
         <v>2510</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -4736,13 +4748,13 @@
         <v>6199</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -4751,13 +4763,13 @@
         <v>8710</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4837,13 @@
         <v>9089</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -4840,13 +4852,13 @@
         <v>4795</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -4855,13 +4867,13 @@
         <v>13884</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4888,13 @@
         <v>7259</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -4891,13 +4903,13 @@
         <v>10278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -4906,13 +4918,13 @@
         <v>17536</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,13 +4992,13 @@
         <v>13186</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4995,13 +5007,13 @@
         <v>9043</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>226</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -5010,13 +5022,13 @@
         <v>22230</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,13 +5043,13 @@
         <v>11030</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -5046,13 +5058,13 @@
         <v>19412</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -5061,13 +5073,13 @@
         <v>30441</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP37-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP37-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ADD33E1-7C6E-46D5-948F-DE0AB94B409B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BA2AE4F-0271-4978-9B46-DBEB52537BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{448675A5-13C9-450D-BECB-476D694F5EA1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0E012975-F2CF-46A3-8283-BF1A298F36B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
   <si>
     <t>Adultos según si han trabajado anteriormente en 2007 (Tasa respuesta: 44,11%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
     <t>61,68%</t>
   </si>
   <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>62,66%</t>
   </si>
   <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
     <t>38,32%</t>
   </si>
   <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
   </si>
   <si>
     <t>37,34%</t>
   </si>
   <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,226 +137,226 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
     <t>67,45%</t>
   </si>
   <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
   </si>
   <si>
     <t>67,17%</t>
   </si>
   <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
   </si>
   <si>
     <t>32,55%</t>
   </si>
   <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
   </si>
   <si>
     <t>32,83%</t>
   </si>
   <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
     <t>68,75%</t>
   </si>
   <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
   </si>
   <si>
     <t>61,17%</t>
   </si>
   <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
   </si>
   <si>
     <t>31,25%</t>
   </si>
   <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
   </si>
   <si>
     <t>38,83%</t>
   </si>
   <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
     <t>56,69%</t>
   </si>
   <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
   </si>
   <si>
     <t>57,13%</t>
   </si>
   <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
   </si>
   <si>
     <t>43,31%</t>
   </si>
   <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
   </si>
   <si>
     <t>42,87%</t>
   </si>
   <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
   </si>
   <si>
     <t>63,42%</t>
   </si>
   <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
   </si>
   <si>
     <t>62,3%</t>
   </si>
   <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
   </si>
   <si>
     <t>36,58%</t>
   </si>
   <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
   </si>
   <si>
     <t>37,7%</t>
   </si>
   <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -365,757 +365,790 @@
     <t>Adultos según si han trabajado anteriormente en 2012 (Tasa respuesta: 54,79%)</t>
   </si>
   <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
     <t>80,02%</t>
   </si>
   <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>79,94%</t>
   </si>
   <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
   </si>
   <si>
     <t>20,06%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
   </si>
   <si>
     <t>73,15%</t>
   </si>
   <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
   </si>
   <si>
     <t>76,31%</t>
   </si>
   <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
   </si>
   <si>
     <t>26,85%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
   </si>
   <si>
     <t>23,69%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>69,49%</t>
   </si>
   <si>
-    <t>60,09%</t>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>Adultos según si han trabajado anteriormente en 2016 (Tasa respuesta: 50,09%)</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>Adultos según si han trabajado anteriormente en 2023 (Tasa respuesta: 34,06%)</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
   </si>
   <si>
     <t>78,16%</t>
   </si>
   <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
   </si>
   <si>
     <t>21,84%</t>
   </si>
   <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>Adultos según si han trabajado anteriormente en 2016 (Tasa respuesta: 50,09%)</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>Adultos según si han trabajado anteriormente en 2023 (Tasa respuesta: 3,91%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
   </si>
   <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D17C75-DAEA-4BFD-BA32-EDF9660D9AAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F06EA93-179D-4588-9827-811BE718D081}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1645,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7">
-        <v>34951</v>
+        <v>27218</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1660,10 +1693,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I4" s="7">
-        <v>27218</v>
+        <v>34951</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1696,10 +1729,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>21719</v>
+        <v>15321</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1711,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I5" s="7">
-        <v>15321</v>
+        <v>21719</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1747,25 +1780,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>66</v>
+      </c>
+      <c r="D6" s="7">
+        <v>42539</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>84</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>56670</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>66</v>
-      </c>
-      <c r="I6" s="7">
-        <v>42539</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1800,10 +1833,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D7" s="7">
-        <v>72765</v>
+        <v>69559</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1815,10 +1848,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I7" s="7">
-        <v>69559</v>
+        <v>72765</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1851,10 +1884,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7">
-        <v>35121</v>
+        <v>34436</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1866,10 +1899,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I8" s="7">
-        <v>34436</v>
+        <v>35121</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1902,25 +1935,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>154</v>
+      </c>
+      <c r="D9" s="7">
+        <v>103995</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>162</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>107886</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>154</v>
-      </c>
-      <c r="I9" s="7">
-        <v>103995</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1955,10 +1988,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7">
-        <v>39331</v>
+        <v>39754</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1970,10 +2003,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" s="7">
-        <v>39754</v>
+        <v>39331</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2006,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7">
-        <v>17878</v>
+        <v>32324</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2021,10 +2054,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7">
-        <v>32324</v>
+        <v>17878</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2057,25 +2090,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>107</v>
+      </c>
+      <c r="D12" s="7">
+        <v>72078</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>87</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>57209</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>107</v>
-      </c>
-      <c r="I12" s="7">
-        <v>72078</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2110,10 +2143,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D13" s="7">
-        <v>53952</v>
+        <v>47770</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2125,10 +2158,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I13" s="7">
-        <v>47770</v>
+        <v>53952</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2161,10 +2194,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D14" s="7">
-        <v>41226</v>
+        <v>35106</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2176,10 +2209,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I14" s="7">
-        <v>35106</v>
+        <v>41227</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2212,25 +2245,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>124</v>
+      </c>
+      <c r="D15" s="7">
+        <v>82876</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>144</v>
       </c>
-      <c r="D15" s="7">
-        <v>95178</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>124</v>
-      </c>
       <c r="I15" s="7">
-        <v>82876</v>
+        <v>95179</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2265,10 +2298,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="D16" s="7">
-        <v>200999</v>
+        <v>184301</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2280,10 +2313,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="I16" s="7">
-        <v>184301</v>
+        <v>200999</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2316,10 +2349,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D17" s="7">
-        <v>115944</v>
+        <v>117187</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2331,10 +2364,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I17" s="7">
-        <v>117187</v>
+        <v>115944</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2367,25 +2400,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>451</v>
+      </c>
+      <c r="D18" s="7">
+        <v>301488</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>477</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>316943</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>451</v>
-      </c>
-      <c r="I18" s="7">
-        <v>301488</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2434,7 +2467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7153DDA3-C33A-41A0-B467-278A9793B2A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32274BC-9ED0-4E16-AD49-050E31D79A87}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2552,10 +2585,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D4" s="7">
-        <v>66253</v>
+        <v>67590</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>108</v>
@@ -2567,10 +2600,10 @@
         <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="I4" s="7">
-        <v>67590</v>
+        <v>66253</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>111</v>
@@ -2603,10 +2636,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>16543</v>
+        <v>17034</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>117</v>
@@ -2618,10 +2651,10 @@
         <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>17034</v>
+        <v>16543</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>120</v>
@@ -2654,25 +2687,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>127</v>
+      </c>
+      <c r="D6" s="7">
+        <v>84624</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>117</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>82796</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>127</v>
-      </c>
-      <c r="I6" s="7">
-        <v>84624</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2707,10 +2740,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D7" s="7">
-        <v>105394</v>
+        <v>104160</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>126</v>
@@ -2722,10 +2755,10 @@
         <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I7" s="7">
-        <v>104160</v>
+        <v>105394</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>129</v>
@@ -2758,10 +2791,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7">
-        <v>38690</v>
+        <v>26382</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>135</v>
@@ -2773,10 +2806,10 @@
         <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I8" s="7">
-        <v>26382</v>
+        <v>38690</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>138</v>
@@ -2809,25 +2842,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>187</v>
+      </c>
+      <c r="D9" s="7">
+        <v>130542</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>202</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>144084</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>187</v>
-      </c>
-      <c r="I9" s="7">
-        <v>130542</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2862,10 +2895,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7">
-        <v>56021</v>
+        <v>66440</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>144</v>
@@ -2877,10 +2910,10 @@
         <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I10" s="7">
-        <v>66440</v>
+        <v>56021</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>147</v>
@@ -2913,10 +2946,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>24591</v>
+        <v>16820</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>153</v>
@@ -2928,10 +2961,10 @@
         <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>16820</v>
+        <v>24591</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>156</v>
@@ -2964,25 +2997,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>117</v>
+      </c>
+      <c r="D12" s="7">
+        <v>83260</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>115</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>80612</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>117</v>
-      </c>
-      <c r="I12" s="7">
-        <v>83260</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3017,10 +3050,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D13" s="7">
-        <v>76554</v>
+        <v>61366</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>162</v>
@@ -3032,10 +3065,10 @@
         <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="I13" s="7">
-        <v>61366</v>
+        <v>76554</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>165</v>
@@ -3068,10 +3101,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7">
-        <v>30648</v>
+        <v>29305</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>171</v>
@@ -3083,10 +3116,10 @@
         <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>29305</v>
+        <v>30648</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>174</v>
@@ -3119,25 +3152,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>128</v>
+      </c>
+      <c r="D15" s="7">
+        <v>90671</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>157</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>107202</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>128</v>
-      </c>
-      <c r="I15" s="7">
-        <v>90671</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3172,10 +3205,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D16" s="7">
-        <v>304222</v>
+        <v>299556</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>180</v>
@@ -3187,10 +3220,10 @@
         <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I16" s="7">
-        <v>299556</v>
+        <v>304222</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>183</v>
@@ -3223,10 +3256,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="D17" s="7">
-        <v>110471</v>
+        <v>89541</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>189</v>
@@ -3238,10 +3271,10 @@
         <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="I17" s="7">
-        <v>89541</v>
+        <v>110471</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>192</v>
@@ -3274,25 +3307,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>559</v>
+      </c>
+      <c r="D18" s="7">
+        <v>389097</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>591</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>414693</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>559</v>
-      </c>
-      <c r="I18" s="7">
-        <v>389097</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3341,7 +3374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B457289-44AF-4C75-8A7B-F82C6323BCBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A7701C-9E8D-4F76-8123-CF3331D6DD8F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3459,10 +3492,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D4" s="7">
-        <v>44657</v>
+        <v>54722</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>199</v>
@@ -3474,10 +3507,10 @@
         <v>201</v>
       </c>
       <c r="H4" s="7">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="I4" s="7">
-        <v>54722</v>
+        <v>44657</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>202</v>
@@ -3510,10 +3543,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>15858</v>
+        <v>17227</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>208</v>
@@ -3525,10 +3558,10 @@
         <v>210</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>17227</v>
+        <v>15858</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>211</v>
@@ -3561,25 +3594,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>113</v>
+      </c>
+      <c r="D6" s="7">
+        <v>71949</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>91</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>60515</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>113</v>
-      </c>
-      <c r="I6" s="7">
-        <v>71949</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3614,10 +3647,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D7" s="7">
-        <v>95965</v>
+        <v>78182</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>217</v>
@@ -3629,10 +3662,10 @@
         <v>219</v>
       </c>
       <c r="H7" s="7">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="I7" s="7">
-        <v>78182</v>
+        <v>95965</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>220</v>
@@ -3665,10 +3698,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7">
-        <v>29648</v>
+        <v>23876</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>226</v>
@@ -3680,10 +3713,10 @@
         <v>228</v>
       </c>
       <c r="H8" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>23876</v>
+        <v>29648</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>229</v>
@@ -3716,25 +3749,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>159</v>
+      </c>
+      <c r="D9" s="7">
+        <v>102058</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>183</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>125613</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>159</v>
-      </c>
-      <c r="I9" s="7">
-        <v>102058</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3769,10 +3802,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D10" s="7">
-        <v>70264</v>
+        <v>77857</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>235</v>
@@ -3784,10 +3817,10 @@
         <v>237</v>
       </c>
       <c r="H10" s="7">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="I10" s="7">
-        <v>77857</v>
+        <v>70264</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>238</v>
@@ -3820,10 +3853,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>25497</v>
+        <v>17850</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>244</v>
@@ -3835,10 +3868,10 @@
         <v>246</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>17850</v>
+        <v>25497</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>247</v>
@@ -3871,25 +3904,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>138</v>
+      </c>
+      <c r="D12" s="7">
+        <v>95707</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>131</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>95761</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>138</v>
-      </c>
-      <c r="I12" s="7">
-        <v>95707</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3924,10 +3957,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D13" s="7">
-        <v>57590</v>
+        <v>66053</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>253</v>
@@ -3939,19 +3972,19 @@
         <v>255</v>
       </c>
       <c r="H13" s="7">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I13" s="7">
-        <v>66053</v>
+        <v>57590</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -3960,13 +3993,13 @@
         <v>123643</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,31 +4011,31 @@
         <v>38</v>
       </c>
       <c r="D14" s="7">
-        <v>27363</v>
+        <v>26562</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
       </c>
       <c r="I14" s="7">
-        <v>26562</v>
+        <v>27363</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>266</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>76</v>
@@ -4011,13 +4044,13 @@
         <v>53925</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,25 +4059,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>134</v>
+      </c>
+      <c r="D15" s="7">
+        <v>92615</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>116</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>84953</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>134</v>
-      </c>
-      <c r="I15" s="7">
-        <v>92615</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4079,34 +4112,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>420</v>
+      </c>
+      <c r="D16" s="7">
+        <v>276814</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="7">
         <v>382</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>268476</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H16" s="7">
-        <v>420</v>
-      </c>
-      <c r="I16" s="7">
-        <v>276814</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>802</v>
@@ -4115,13 +4148,13 @@
         <v>545289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,34 +4163,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>124</v>
+      </c>
+      <c r="D17" s="7">
+        <v>85515</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H17" s="7">
         <v>139</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>98366</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H17" s="7">
-        <v>124</v>
-      </c>
-      <c r="I17" s="7">
-        <v>85515</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>263</v>
@@ -4166,13 +4199,13 @@
         <v>183882</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,25 +4214,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>544</v>
+      </c>
+      <c r="D18" s="7">
+        <v>362329</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>521</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>366842</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>544</v>
-      </c>
-      <c r="I18" s="7">
-        <v>362329</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4248,7 +4281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA93E90-EABB-48C4-98E6-2C425B106021}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD97E8C-8AF3-4270-B831-984C8D80703A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4265,7 +4298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4366,46 +4399,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>13475</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>396</v>
+        <v>12848</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="N4" s="7">
-        <v>396</v>
+        <v>26325</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>292</v>
@@ -4417,49 +4450,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>352</v>
+        <v>4057</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>494</v>
+        <v>4646</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N5" s="7">
-        <v>846</v>
+        <v>8702</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,10 +4501,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>352</v>
+        <v>17532</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4483,10 +4516,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>890</v>
+        <v>17494</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4498,10 +4531,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="N6" s="7">
-        <v>1242</v>
+        <v>35027</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4521,49 +4554,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D7" s="7">
-        <v>3468</v>
+        <v>37370</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="I7" s="7">
-        <v>1455</v>
+        <v>50550</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>299</v>
+        <v>235</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="N7" s="7">
-        <v>4922</v>
+        <v>87920</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>201</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,49 +4605,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>908</v>
+        <v>12984</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>2441</v>
+        <v>11587</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>305</v>
+        <v>244</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="N8" s="7">
-        <v>3349</v>
+        <v>24571</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>209</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,10 +4656,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7">
-        <v>4376</v>
+        <v>50354</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4638,10 +4671,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="I9" s="7">
-        <v>3896</v>
+        <v>62137</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4653,10 +4686,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="N9" s="7">
-        <v>8271</v>
+        <v>112491</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4676,49 +4709,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>630</v>
+        <v>43197</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>2397</v>
+        <v>42299</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="N10" s="7">
-        <v>3027</v>
+        <v>85496</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,49 +4760,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>2510</v>
+        <v>22801</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I11" s="7">
-        <v>6199</v>
+        <v>22001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="N11" s="7">
-        <v>8710</v>
+        <v>44802</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,10 +4811,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="D12" s="7">
-        <v>3140</v>
+        <v>65998</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4793,10 +4826,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I12" s="7">
-        <v>8596</v>
+        <v>64300</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4808,10 +4841,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="N12" s="7">
-        <v>11737</v>
+        <v>130298</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4831,49 +4864,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D13" s="7">
-        <v>9089</v>
+        <v>86414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="I13" s="7">
-        <v>4795</v>
+        <v>74266</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="N13" s="7">
-        <v>13884</v>
+        <v>160681</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,49 +4915,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7">
-        <v>7259</v>
+        <v>37346</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I14" s="7">
-        <v>10278</v>
+        <v>38227</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="N14" s="7">
-        <v>17536</v>
+        <v>75572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,10 +4966,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="D15" s="7">
-        <v>16348</v>
+        <v>123760</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4948,10 +4981,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I15" s="7">
-        <v>15073</v>
+        <v>112493</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4963,10 +4996,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="N15" s="7">
-        <v>31420</v>
+        <v>236253</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4986,49 +5019,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="D16" s="7">
-        <v>13186</v>
+        <v>180457</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="H16" s="7">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="I16" s="7">
-        <v>9043</v>
+        <v>179964</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
-        <v>31</v>
+        <v>450</v>
       </c>
       <c r="N16" s="7">
-        <v>22230</v>
+        <v>360421</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,49 +5070,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D17" s="7">
-        <v>11030</v>
+        <v>77187</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="I17" s="7">
-        <v>19412</v>
+        <v>76460</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="N17" s="7">
-        <v>30441</v>
+        <v>153647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>33</v>
+        <v>324</v>
       </c>
       <c r="D18" s="7">
-        <v>24216</v>
+        <v>257644</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5103,10 +5136,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>330</v>
       </c>
       <c r="I18" s="7">
-        <v>28455</v>
+        <v>256424</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5118,10 +5151,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>75</v>
+        <v>654</v>
       </c>
       <c r="N18" s="7">
-        <v>52671</v>
+        <v>514068</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
